--- a/Dataset/k_s_data.xlsx
+++ b/Dataset/k_s_data.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:I3350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
